--- a/config/testcases/Report_Play lesson M Go.xlsx
+++ b/config/testcases/Report_Play lesson M Go.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
   <si>
     <t>TCID</t>
   </si>
@@ -112,22 +112,34 @@
     <t>N</t>
   </si>
   <si>
+    <t>TS4</t>
+  </si>
+  <si>
+    <t>Vuốt map</t>
+  </si>
+  <si>
+    <t>swipeMapMgo</t>
+  </si>
+  <si>
+    <t>200,800,250,Node//Lesson[activeInHierarchy=true],TextMeshProUGUI</t>
+  </si>
+  <si>
+    <t>$.lesson</t>
+  </si>
+  <si>
     <t>TS3</t>
   </si>
   <si>
     <t>Xác định lesson play</t>
   </si>
   <si>
-    <t>setVariableTypeOfIntFile</t>
+    <t>getPathStartWith</t>
   </si>
   <si>
-    <t>order</t>
+    <t>Lesson_,Node//Icon/Lesson[activeInHierarchy=true],TextMeshProUGUI,text</t>
   </si>
   <si>
-    <t>$.map</t>
-  </si>
-  <si>
-    <t>TS4</t>
+    <t>TS5</t>
   </si>
   <si>
     <t>Xác định map</t>
@@ -141,37 +153,22 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t>index,Lesson_</t>
+      <t>index,Map(Clone),//</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
         <color rgb="FF6AA84F"/>
       </rPr>
-      <t>$.order</t>
+      <t>$.path</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t>/Node//Lesson[activeInHierarchy=true],TextMeshProUGUI,text</t>
+      <t>/Node/Lesson/Icon/Lesson,TextMeshProUGUI,text</t>
     </r>
-  </si>
-  <si>
-    <t>$.lesson</t>
-  </si>
-  <si>
-    <t>TS5</t>
-  </si>
-  <si>
-    <t>Vuốt map</t>
-  </si>
-  <si>
-    <t>swipeMapMgo</t>
-  </si>
-  <si>
-    <t>Lesson_4,Lesson_2,Node//Lesson[activeInHierarchy=true],TextMeshProUGUI</t>
   </si>
   <si>
     <t>TS6</t>
@@ -199,14 +196,14 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t>]//Lesson_</t>
+      <t>]//</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
         <color rgb="FF6AA84F"/>
       </rPr>
-      <t>$.order</t>
+      <t>$.path</t>
     </r>
     <r>
       <rPr>
@@ -375,11 +372,11 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
@@ -997,49 +994,49 @@
       <c r="Y3" s="14"/>
       <c r="Z3" s="14"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" ht="28.5" customHeight="1">
       <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="14"/>
-    </row>
-    <row r="5" ht="31.5" customHeight="1">
+      <c r="H4" s="9"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+    </row>
+    <row r="5" ht="28.5" customHeight="1">
       <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
@@ -1055,8 +1052,8 @@
       <c r="E5" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="18" t="s">
-        <v>39</v>
+      <c r="F5" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>10</v>
@@ -1081,63 +1078,63 @@
       <c r="Y5" s="14"/>
       <c r="Z5" s="14"/>
     </row>
-    <row r="6" ht="28.5" customHeight="1">
+    <row r="6" ht="31.5" customHeight="1">
       <c r="A6" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="D6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="E6" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
     </row>
     <row r="7" ht="26.25" customHeight="1">
       <c r="A7" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="18" t="s">
         <v>45</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>46</v>
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="20" t="s">
@@ -1168,16 +1165,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>47</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>48</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>49</v>
+      <c r="E8" s="18" t="s">
+        <v>48</v>
       </c>
       <c r="F8" s="23"/>
       <c r="G8" s="20" t="s">
@@ -1258,13 +1255,13 @@
         <v>5</v>
       </c>
       <c r="B1" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="25" t="s">
         <v>51</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>52</v>
       </c>
       <c r="E1" s="24" t="s">
         <v>1</v>
@@ -6954,7 +6951,10 @@
       <c r="Z148" s="31"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="31"/>
+      <c r="A149" s="31" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getPath")</f>
+        <v>getPath</v>
+      </c>
       <c r="B149" s="31"/>
       <c r="C149" s="31"/>
       <c r="D149" s="31"/>
@@ -16914,10 +16914,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>53</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/config/testcases/Report_Play lesson M Go.xlsx
+++ b/config/testcases/Report_Play lesson M Go.xlsx
@@ -106,7 +106,7 @@
     <t>clickWhichDisplay</t>
   </si>
   <si>
-    <t>PopupBuyDaily(Clone)//BtnClose,Button,onClick()</t>
+    <t>ButtonClose,Button,onClick()</t>
   </si>
   <si>
     <t>N</t>
